--- a/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Dialogbeschreibungen/Spieloberfläche_Status_Button.xlsx
+++ b/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Dialogbeschreibungen/Spieloberfläche_Status_Button.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\iCloudDrive\UniBw\6. Trimester\Höhere Prog und Software Eng\Praktukum SE\Projektmanager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\iCloudDrive\UniBw\6. Trimester\Höhere Prog und Software Eng\SE-Project2018\Dokumente\02_Arbeitsbereich\04_Anforderungsspezifikation\Dialogbeschreibungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="20520" windowHeight="10640" tabRatio="500"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20520" windowHeight="10635" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Ausgabefeld</t>
   </si>
   <si>
-    <t>Wechselt auf die aktuellle Phasen im eigenen Zug. Zeigt bei gegnerischem Zug den jeweiligen Spieler an.</t>
-  </si>
-  <si>
     <t>Karten eintauschen</t>
   </si>
   <si>
-    <t>Setzen beenden</t>
-  </si>
-  <si>
     <t>Angreifen</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Zeigt die zu verteilenden Ersties an</t>
   </si>
   <si>
-    <t>Aktuallisiert je nach eingenommenen Gebäude/SFB oder Karteneintausch die zu setzenden Ersties</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -110,16 +101,19 @@
     <t>Beendet Phase 3 und führt im Anwendungsfall "Spielzug" die Aktion "nächster Spieler" aus</t>
   </si>
   <si>
-    <t>Beginnt Anwendungsfall "Verschieben". Button Karten eintauschen, Setzen beenden und Angreifen sind ausgegraut.</t>
-  </si>
-  <si>
-    <t>Beginnt Anwendungsfall "Angreifen und Abwehren". Button Karten eintauschen und Setzen beenden sind ausgegraut</t>
-  </si>
-  <si>
     <t>Tauscht ausgewählte Kartenkombination gegen Ersties. Button Angreifen und Verschieben sind ausgegraut.</t>
   </si>
   <si>
-    <t>Beendet Phase 1. Button Karten eintauschen ist ausgegraut und Button Angreifen und Verschieben werden aktiv.</t>
+    <t>Wechselt auf die aktuelle Phasen im eigenen Zug. Zeigt bei gegnerischem Zug den jeweiligen Spieler an.</t>
+  </si>
+  <si>
+    <t>Aktualisiert je nach eingenommenen Gebäude/SFB oder Karteneintausch die zu setzenden Ersties</t>
+  </si>
+  <si>
+    <t>Beginnt Anwendungsfall "Angreifen und Abwehren". Button Karten eintauschen wird ausgegraut</t>
+  </si>
+  <si>
+    <t>Beginnt Anwendungsfall "Verschieben". Button Karten eintauschen und Angreifen sind ausgegraut.</t>
   </si>
 </sst>
 </file>
@@ -494,21 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -526,273 +520,261 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
